--- a/biology/Zoologie/Equus_ferus/Equus_ferus.xlsx
+++ b/biology/Zoologie/Equus_ferus/Equus_ferus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cheval
-Equus ferus, généralement désigné sous le nom de Cheval, est une espèce d'équidés à laquelle on attribue actuellement trois sous-espèces : le Tarpan (Equus ferus ferus), aujourd'hui éteint, le Cheval domestique (Equus ferus caballus) et le Cheval de Przewalski (Equus ferus przewalski)[1]. Il est largement admis que les chevaux domestiques modernes proviennent du Tarpan, mais d'autres sous-espèces potentielles issues d'Equus ferus en sont peut-être à l'origine.
+Equus ferus, généralement désigné sous le nom de Cheval, est une espèce d'équidés à laquelle on attribue actuellement trois sous-espèces : le Tarpan (Equus ferus ferus), aujourd'hui éteint, le Cheval domestique (Equus ferus caballus) et le Cheval de Przewalski (Equus ferus przewalski). Il est largement admis que les chevaux domestiques modernes proviennent du Tarpan, mais d'autres sous-espèces potentielles issues d'Equus ferus en sont peut-être à l'origine.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les sous-espèces admises d'Equus ferus :Tarpan(E. f. ferus)Cheval de Przewalski(E. f. przewalskii)Cheval domestique(E. f. caballus)
 Deux écoles s'opposaient concernant les deux formes que sont le Tarpan et le Cheval de Przewalski. Pour la première école, il s'agissait de deux espèces assez proches, respectivement Equus ferus (Tarpan) et Equus przewalskii (Cheval de Przewalski). Pour la seconde école, il s'agissait de deux sous-espèces appartenant à la même espèce, Equus ferus. Le Tarpan était alors appelé Equus ferus ferus et le Przewalski Equus ferus przewalskii.
@@ -545,9 +559,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il n'existe plus dans la nature de forme sauvage antérieure à la domestication, mais seulement des formes domestiques redevenues sauvages ou réintroduites par l'homme dans un environnement sauvage. Le Tarpan est en effet éteint et le Cheval de Przewalski est en fait une ancienne forme domestique, antérieure à la forme domestique moderne, retournée à l'état sauvage dans les steppes d'Asie centrale[2]. Après avoir frôlé l'extinction au XXe siècle sous l'action de l'homme, le Cheval de Przewalski a été réintroduit à l'état sauvage en plusieurs endroits d'Asie centrale.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il n'existe plus dans la nature de forme sauvage antérieure à la domestication, mais seulement des formes domestiques redevenues sauvages ou réintroduites par l'homme dans un environnement sauvage. Le Tarpan est en effet éteint et le Cheval de Przewalski est en fait une ancienne forme domestique, antérieure à la forme domestique moderne, retournée à l'état sauvage dans les steppes d'Asie centrale. Après avoir frôlé l'extinction au XXe siècle sous l'action de l'homme, le Cheval de Przewalski a été réintroduit à l'état sauvage en plusieurs endroits d'Asie centrale.
 Le territoire des États-Unis a conservé une population de chevaux domestiques introduits sur le continent américain par les colons espagnols au XVIe siècle et redevenus sauvages par marronnage au fil du temps, qu'on appelle mustangs.
 </t>
         </is>
